--- a/phbi/proker/list proker.xlsx
+++ b/phbi/proker/list proker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>no</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>pembagian hewan qurban</t>
+  </si>
+  <si>
+    <t>belum</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1267,9 @@
         <v>45194</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">

--- a/phbi/proker/list proker.xlsx
+++ b/phbi/proker/list proker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="proker phbi tahunan" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>no</t>
   </si>
@@ -78,9 +78,6 @@
     <t>pawai obor</t>
   </si>
   <si>
-    <t>sodaqoh ke kaum duafa</t>
-  </si>
-  <si>
     <t>tabligh akbar isra mi'raj</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>perencanaan shalat idul fitri</t>
   </si>
   <si>
-    <t>perencanaan shalat idul adha</t>
-  </si>
-  <si>
     <t>penyembelihan hewan qurban</t>
   </si>
   <si>
@@ -205,6 +199,15 @@
   </si>
   <si>
     <t>belum</t>
+  </si>
+  <si>
+    <t>perencanaan shalat idul adha &amp; qurban</t>
+  </si>
+  <si>
+    <t>sodaqoh ke mustahik zakat</t>
+  </si>
+  <si>
+    <t>taraweh keliling</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -290,16 +293,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -309,15 +312,47 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -401,13 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -424,26 +452,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +811,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="29">
@@ -796,24 +824,24 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="29">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="32"/>
@@ -822,22 +850,22 @@
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="32"/>
@@ -846,20 +874,21 @@
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+      <c r="C7" s="2" t="str">
+        <f>E2</f>
+        <v>sodaqoh ke mustahik zakat</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="32"/>
@@ -868,211 +897,216 @@
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="28">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="28">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="29">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="29">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="29">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="29">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="28">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="29">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
+      <c r="C18" s="2" t="str">
+        <f>C7</f>
+        <v>sodaqoh ke mustahik zakat</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="28">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="28">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="34">
+      <c r="A21" s="41"/>
+      <c r="B21" s="28">
         <v>3</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="35"/>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="33">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="42">
         <f>COUNTA(C2:C22)</f>
         <v>16</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="42">
         <f t="shared" ref="D24:E24" si="0">COUNTA(D2:D22)</f>
-        <v>7</v>
-      </c>
-      <c r="E24" s="33">
+        <v>8</v>
+      </c>
+      <c r="E24" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1095,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,32 +1154,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="39" t="str">
         <f>'proker phbi tahunan'!A5</f>
         <v>Rabiul Awwal</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>tabligh akbar maulid nabi muhammad saw</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="15">
@@ -1164,7 +1198,7 @@
         <v>45197</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" s="18"/>
     </row>
@@ -1172,15 +1206,15 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="15">
         <v>0</v>
@@ -1196,9 +1230,9 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" ref="D4:D6" si="0">D3</f>
@@ -1222,9 +1256,9 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1248,16 +1282,16 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>anak sd</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="15">
         <v>3</v>
@@ -1268,22 +1302,22 @@
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25" t="str">
@@ -1292,16 +1326,16 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" ref="D8:D9" si="2">D7</f>
@@ -1326,9 +1360,9 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="2"/>

--- a/phbi/proker/list proker.xlsx
+++ b/phbi/proker/list proker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="proker phbi tahunan" sheetId="1" r:id="rId1"/>
@@ -452,26 +452,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="29">
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="29">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="28">
@@ -923,7 +923,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="28">
         <v>2</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="29">
@@ -951,7 +951,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="29">
         <v>2</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="29">
         <v>3</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="29">
         <v>4</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="29">
         <v>5</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="28">
@@ -1045,7 +1045,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="28">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="28">
         <v>3</v>
       </c>
@@ -1083,19 +1083,19 @@
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="42">
+      <c r="B24" s="44"/>
+      <c r="C24" s="39">
         <f>COUNTA(C2:C22)</f>
         <v>16</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="39">
         <f t="shared" ref="D24:E24" si="0">COUNTA(D2:D22)</f>
         <v>8</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="45" t="str">
         <f>'proker phbi tahunan'!A5</f>
         <v>Rabiul Awwal</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="16">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>48</v>
@@ -1206,7 +1206,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G3" s="16">
         <f>IF(F3="","",$G$2-F3)</f>
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
@@ -1230,7 +1230,7 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G9" si="1">IF(F4="","",$G$2-F4)</f>
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18"/>
@@ -1256,7 +1256,7 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
         <v>52</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="G5" s="16">
         <f t="shared" si="1"/>
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
@@ -1282,7 +1282,7 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="G6" s="16">
         <f t="shared" si="1"/>
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="s">
@@ -1309,7 +1309,7 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="13" t="s">
         <v>54</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
